--- a/public/footnotation.xlsx
+++ b/public/footnotation.xlsx
@@ -19,17 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>password</t>
   </si>
   <si>
-    <t>id (pk)</t>
-  </si>
-  <si>
-    <t>id (PK)</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
@@ -48,22 +42,31 @@
     <t>Media</t>
   </si>
   <si>
-    <t>media_id (FK)</t>
-  </si>
-  <si>
     <t>poster_path</t>
   </si>
   <si>
     <t>title</t>
   </si>
   <si>
-    <t>api_Id</t>
-  </si>
-  <si>
-    <t>users_id (FK)</t>
-  </si>
-  <si>
-    <t>watchlist</t>
+    <t>api_Id (pk)</t>
+  </si>
+  <si>
+    <t>ratting</t>
+  </si>
+  <si>
+    <t>Release</t>
+  </si>
+  <si>
+    <t>mida_id (Fk)</t>
+  </si>
+  <si>
+    <t>users_media</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>username (FK)</t>
   </si>
 </sst>
 </file>
@@ -171,25 +174,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -472,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:K23"/>
+  <dimension ref="C2:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -490,100 +493,98 @@
     <col min="12" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C3" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C7" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C8" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="K9" s="13"/>
-    </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C12" s="4" t="s">
+    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C11" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C12" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C13" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C14" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C13" s="14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C14" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C15" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C15" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C16" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>14</v>
+      <c r="F16" s="13" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C17" s="12"/>
-      <c r="F17" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="F17" s="14"/>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C18" s="10"/>
+      <c r="C18" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C19" s="10"/>
+      <c r="C19" s="9"/>
       <c r="F19" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C20" s="10"/>
+      <c r="C20" s="9"/>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C21" s="7"/>
@@ -595,8 +596,9 @@
       <c r="C23" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C16:C17"/>
+    <mergeCell ref="F16:F17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
